--- a/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="112">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -266,22 +272,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Dati generali</t>
@@ -400,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -837,7 +843,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>26</v>
@@ -929,7 +935,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>26</v>
@@ -1038,19 +1044,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1061,16 +1067,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1084,7 +1090,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
@@ -1093,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1107,7 +1113,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1116,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1130,7 +1136,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
@@ -1139,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1153,16 +1159,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>79</v>
@@ -1176,19 +1182,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1199,19 +1205,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1222,7 +1228,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -1231,10 +1237,10 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1245,19 +1251,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1268,7 +1274,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>86</v>
@@ -1277,7 +1283,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>87</v>
@@ -1291,7 +1297,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>88</v>
@@ -1300,7 +1306,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>89</v>
@@ -1314,53 +1320,53 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1369,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1378,12 +1384,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
@@ -1392,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1401,58 +1407,58 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>97</v>
@@ -1461,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>98</v>
@@ -1470,12 +1476,12 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>99</v>
@@ -1484,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>100</v>
@@ -1493,41 +1499,41 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>14</v>
@@ -1544,24 +1550,47 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Data morte</t>
+  </si>
+  <si>
+    <t>evento.datiDiMorte</t>
+  </si>
+  <si>
+    <t>dataMorte</t>
   </si>
   <si>
     <t>Stato Nascita</t>
@@ -406,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -705,13 +714,13 @@
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -725,7 +734,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -734,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -748,16 +757,16 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -771,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -780,7 +789,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -794,7 +803,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -803,7 +812,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -817,7 +826,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -826,7 +835,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -840,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
@@ -849,7 +858,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -863,16 +872,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -886,7 +895,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -895,7 +904,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -909,7 +918,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -918,7 +927,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -932,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -941,7 +950,7 @@
         <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -955,16 +964,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -978,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -987,7 +996,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1001,7 +1010,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
@@ -1010,7 +1019,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1024,7 +1033,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -1033,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1047,7 +1056,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>25</v>
@@ -1056,7 +1065,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1067,7 +1076,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1076,10 +1085,10 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1090,19 +1099,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1113,19 +1122,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1136,19 +1145,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1159,19 +1168,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1182,19 +1191,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1205,19 +1214,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1228,19 +1237,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1251,19 +1260,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1274,19 +1283,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1297,19 +1306,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1320,19 +1329,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1343,7 +1352,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1352,30 +1361,30 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1384,90 +1393,90 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>98</v>
@@ -1476,93 +1485,93 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1573,16 +1582,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>111</v>
@@ -1591,6 +1600,29 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
@@ -898,7 +898,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>26</v>
@@ -921,7 +921,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
@@ -944,7 +944,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>26</v>
@@ -967,7 +967,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>26</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>nome</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Codice Fiscale</t>
@@ -415,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -668,7 +674,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
@@ -714,13 +720,13 @@
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -734,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -783,7 +789,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>26</v>
@@ -1099,19 +1105,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1122,16 +1128,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>76</v>
@@ -1145,7 +1151,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
@@ -1154,7 +1160,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
@@ -1168,7 +1174,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>79</v>
@@ -1177,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>80</v>
@@ -1191,7 +1197,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>81</v>
@@ -1200,7 +1206,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>82</v>
@@ -1214,16 +1220,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>84</v>
@@ -1237,19 +1243,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1260,19 +1266,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1283,7 +1289,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>88</v>
@@ -1292,10 +1298,10 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1306,19 +1312,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1329,7 +1335,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
@@ -1338,7 +1344,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1352,16 +1358,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1375,53 +1381,53 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1430,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1439,12 +1445,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1453,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1462,58 +1468,58 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>102</v>
@@ -1522,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>103</v>
@@ -1531,12 +1537,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>104</v>
@@ -1545,7 +1551,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>105</v>
@@ -1554,41 +1560,41 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>14</v>
@@ -1605,24 +1611,47 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
+      <c r="B53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -303,6 +303,78 @@
   </si>
   <si>
     <t>tipologia</t>
+  </si>
+  <si>
+    <t>Soggetto Collegato</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazioneModificativa.soggettoCollegato</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Dati generali</t>
@@ -421,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -430,7 +502,7 @@
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="48.41015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="50.55078125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="57.0390625" customWidth="true" bestFit="true"/>
@@ -1407,22 +1479,22 @@
         <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -1430,22 +1502,22 @@
         <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -1453,22 +1525,22 @@
         <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -1476,22 +1548,22 @@
         <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -1499,22 +1571,22 @@
         <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -1522,22 +1594,22 @@
         <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -1545,22 +1617,22 @@
         <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -1568,39 +1640,39 @@
         <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1683,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1634,24 +1706,599 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1833,7 +1839,7 @@
         <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1847,7 +1853,7 @@
         <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
@@ -1856,7 +1862,7 @@
         <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1870,7 +1876,7 @@
         <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
@@ -1879,7 +1885,7 @@
         <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1893,7 +1899,7 @@
         <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
@@ -1902,7 +1908,7 @@
         <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1916,7 +1922,7 @@
         <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
@@ -1925,7 +1931,7 @@
         <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1939,7 +1945,7 @@
         <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
@@ -1948,7 +1954,7 @@
         <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1962,7 +1968,7 @@
         <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
@@ -1971,7 +1977,7 @@
         <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1985,7 +1991,7 @@
         <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
@@ -1994,7 +2000,7 @@
         <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2051,53 +2057,53 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>128</v>
@@ -2106,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>129</v>
@@ -2115,12 +2121,12 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>130</v>
@@ -2129,7 +2135,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>131</v>
@@ -2138,58 +2144,58 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>128</v>
@@ -2198,7 +2204,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>129</v>
@@ -2207,12 +2213,12 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>130</v>
@@ -2221,7 +2227,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>131</v>
@@ -2230,41 +2236,41 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>14</v>
@@ -2281,24 +2287,47 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="B79" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -499,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1465,7 +1471,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>75</v>
@@ -1482,19 +1488,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1511,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1534,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1557,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1580,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1603,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1626,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1672,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1695,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1718,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1741,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1764,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1787,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1810,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1827,7 +1833,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
@@ -1836,7 +1842,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>109</v>
@@ -1850,7 +1856,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>110</v>
@@ -1859,10 +1865,10 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1879,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1902,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1925,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1948,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1971,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1988,19 +1994,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2017,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2034,7 +2040,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>119</v>
@@ -2043,7 +2049,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>120</v>
@@ -2057,7 +2063,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>121</v>
@@ -2066,7 +2072,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>122</v>
@@ -2080,53 +2086,53 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>130</v>
@@ -2135,7 +2141,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>131</v>
@@ -2144,12 +2150,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>132</v>
@@ -2158,7 +2164,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>133</v>
@@ -2167,58 +2173,58 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>130</v>
@@ -2227,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>131</v>
@@ -2236,12 +2242,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>132</v>
@@ -2250,7 +2256,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>133</v>
@@ -2259,41 +2265,41 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>14</v>
@@ -2310,24 +2316,47 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="B80" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_998_3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>evento.datiAnnotazioneModificativa.soggettoCollegato</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -505,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1606,7 +1618,7 @@
         <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
@@ -1615,7 +1627,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1629,7 +1641,7 @@
         <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
@@ -1638,7 +1650,7 @@
         <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1652,7 +1664,7 @@
         <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
@@ -1661,7 +1673,7 @@
         <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1675,7 +1687,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
@@ -1684,7 +1696,7 @@
         <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,7 +1710,7 @@
         <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
@@ -1707,7 +1719,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,7 +1733,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
@@ -1730,7 +1742,7 @@
         <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1744,7 +1756,7 @@
         <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
@@ -1753,7 +1765,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1767,7 +1779,7 @@
         <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
@@ -1776,7 +1788,7 @@
         <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1790,7 +1802,7 @@
         <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
@@ -1799,7 +1811,7 @@
         <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1813,7 +1825,7 @@
         <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
@@ -1822,7 +1834,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1836,7 +1848,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
@@ -1845,7 +1857,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,7 +1871,7 @@
         <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
@@ -1868,7 +1880,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,7 +1903,7 @@
         <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,7 +1917,7 @@
         <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
@@ -1914,7 +1926,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1928,7 +1940,7 @@
         <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
@@ -1937,7 +1949,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,7 +1963,7 @@
         <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
@@ -1960,7 +1972,7 @@
         <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1974,7 +1986,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
@@ -1983,7 +1995,7 @@
         <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1997,7 +2009,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
@@ -2006,7 +2018,7 @@
         <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2020,7 +2032,7 @@
         <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
@@ -2029,7 +2041,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2043,7 +2055,7 @@
         <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
@@ -2052,7 +2064,7 @@
         <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,7 +2078,7 @@
         <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
@@ -2075,7 +2087,7 @@
         <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2109,76 +2121,76 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>134</v>
@@ -2187,7 +2199,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>135</v>
@@ -2196,81 +2208,81 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>134</v>
@@ -2279,7 +2291,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>135</v>
@@ -2288,53 +2300,53 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -2342,21 +2354,67 @@
         <v>142</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>16</v>
       </c>
     </row>
